--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -823,25 +823,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>南通市港闸区建设路</t>
+          <t>南通市通州区和平路</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区建设路767号</t>
+          <t>江苏省南通市通州区和平路690号</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-01-16 09:50</t>
+          <t>2024-01-19 13:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>南通市海安市文化路</t>
+          <t>南通市开发区中山路</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市文化路344号</t>
+          <t>江苏省南通市开发区中山路201号</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -872,103 +872,103 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-01-21 16:34</t>
+          <t>2024-01-20 17:18</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>南通市开发区工农路</t>
+          <t>南通市港闸区青年路</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区工农路779号</t>
+          <t>江苏省南通市港闸区青年路174号</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-01-15 08:49</t>
+          <t>2024-01-26 15:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>黄强</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>南通市崇川区友谊路</t>
+          <t>南通市崇川区和平路</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区友谊路862号</t>
+          <t>江苏省南通市崇川区和平路276号</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-01-25 17:06</t>
+          <t>2024-01-19 15:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>朱峰</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>南通市海安市友谊路</t>
+          <t>南通市如东县工农路</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市友谊路330号</t>
+          <t>江苏省南通市如东县工农路614号</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -977,33 +977,33 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-01-30 15:48</t>
+          <t>2024-01-28 08:16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>南通市港闸区工农路</t>
+          <t>南通市开发区文化路</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区工农路230号</t>
+          <t>江苏省南通市开发区文化路138号</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1012,33 +1012,33 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-01-21 10:53</t>
+          <t>2024-01-26 11:27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>林华</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>南通市通州区文化路</t>
+          <t>南通市崇川区工农路</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区文化路370号</t>
+          <t>江苏省南通市崇川区工农路303号</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1047,33 +1047,33 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-01-25 11:11</t>
+          <t>2024-01-27 15:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>黄强</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>南通市海门区解放路</t>
+          <t>南通市如东县解放路</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区解放路722号</t>
+          <t>江苏省南通市如东县解放路567号</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1082,33 +1082,33 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-01-25 17:19</t>
+          <t>2024-01-30 16:19</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>南通市开发区解放路</t>
+          <t>南通市通州区工农路</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区解放路555号</t>
+          <t>江苏省南通市通州区工农路757号</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1117,38 +1117,38 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-01-27 17:14</t>
+          <t>2024-01-15 15:07</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>周九</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>南通市通州区人民路</t>
+          <t>南通市港闸区建设路</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区人民路43号</t>
+          <t>江苏省南通市港闸区建设路788号</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1156,64 +1156,64 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-01-24 09:31</t>
+          <t>2024-01-22 13:20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>黄强</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>南通市开发区中山路</t>
+          <t>南通市开发区建设路</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区中山路52号</t>
+          <t>江苏省南通市开发区建设路120号</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-01-27 17:15</t>
+          <t>2024-01-20 09:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>南通市海门区人民路</t>
+          <t>南通市崇川区友谊路</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区人民路773号</t>
+          <t>江苏省南通市崇川区友谊路785号</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1226,69 +1226,69 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-01-15 18:19</t>
+          <t>2024-01-16 16:36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>南通市如东县文化路</t>
+          <t>南通市启东市胜利路</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县文化路941号</t>
+          <t>江苏省南通市启东市胜利路866号</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-01-24 14:29</t>
+          <t>2024-01-26 18:22</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>南通市开发区人民路</t>
+          <t>南通市海安市和平路</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区人民路412号</t>
+          <t>江苏省南通市海安市和平路281号</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1296,29 +1296,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-01-30 15:38</t>
+          <t>2024-01-27 10:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>南通市开发区中山路</t>
+          <t>南通市启东市建设路</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区中山路49号</t>
+          <t>江苏省南通市启东市建设路31号</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-01-24 14:36</t>
+          <t>2024-01-24 17:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>南通市海门区和平路</t>
+          <t>南通市港闸区友谊路</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区和平路462号</t>
+          <t>江苏省南通市港闸区友谊路723号</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1362,33 +1362,33 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-01-26 12:18</t>
+          <t>2024-01-29 18:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>梁美</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>南通市海安市工农路</t>
+          <t>南通市如东县胜利路</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市工农路162号</t>
+          <t>江苏省南通市如东县胜利路976号</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1397,16 +1397,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-01-23 11:44</t>
+          <t>2024-01-20 14:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>钱七</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1418,12 +1418,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>南通市崇川区文化路</t>
+          <t>南通市港闸区和平路</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区文化路292号</t>
+          <t>江苏省南通市港闸区和平路412号</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1432,33 +1432,33 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-01-18 14:11</t>
+          <t>2024-01-29 08:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>林华</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>南通市通州区解放路</t>
+          <t>南通市崇川区青年路</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区解放路54号</t>
+          <t>江苏省南通市崇川区青年路417号</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1467,51 +1467,51 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-01-20 16:45</t>
+          <t>2024-01-25 09:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>冯十二</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>南通市港闸区和平路</t>
+          <t>南通市通州区解放路</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区和平路79号</t>
+          <t>江苏省南通市通州区解放路975号</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-01-16 08:34</t>
+          <t>2024-01-25 10:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>梁美</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1523,12 +1523,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>南通市港闸区友谊路</t>
+          <t>南通市崇川区建设路</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区友谊路231号</t>
+          <t>江苏省南通市崇川区建设路994号</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1541,29 +1541,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-01-20 16:51</t>
+          <t>2024-01-30 17:29</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>南通市崇川区工农路</t>
+          <t>南通市开发区中山路</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区工农路850号</t>
+          <t>江苏省南通市开发区中山路976号</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1572,33 +1572,33 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-01-28 12:30</t>
+          <t>2024-01-16 18:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>刘敏</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>南通市崇川区解放路</t>
+          <t>南通市港闸区和平路</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区解放路20号</t>
+          <t>江苏省南通市港闸区和平路610号</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1607,103 +1607,103 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-01-30 09:07</t>
+          <t>2024-01-24 09:26</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>郑十一</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>南通市崇川区中山路</t>
+          <t>南通市海安市胜利路</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区中山路353号</t>
+          <t>江苏省南通市海安市胜利路412号</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-01-22 16:34</t>
+          <t>2024-01-29 14:24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>南通市港闸区人民路</t>
+          <t>南通市崇川区青年路</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区人民路643号</t>
+          <t>江苏省南通市崇川区青年路704号</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-01-26 18:30</t>
+          <t>2024-01-28 16:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>冯十二</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>南通市开发区解放路</t>
+          <t>南通市开发区和平路</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区解放路967号</t>
+          <t>江苏省南通市开发区和平路798号</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1712,68 +1712,68 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-01-27 11:36</t>
+          <t>2024-01-29 16:12</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>马超</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>南通市如东县工农路</t>
+          <t>南通市启东市友谊路</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县工农路546号</t>
+          <t>江苏省南通市启东市友谊路12号</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-01-17 10:04</t>
+          <t>2024-01-26 12:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>李四</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>南通市开发区友谊路</t>
+          <t>南通市海安市文化路</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区友谊路916号</t>
+          <t>江苏省南通市海安市文化路534号</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1782,68 +1782,68 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-01-27 15:05</t>
+          <t>2024-01-20 14:15</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>刘敏</t>
+          <t>王五</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>南通市港闸区和平路</t>
+          <t>南通市通州区友谊路</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区和平路340号</t>
+          <t>江苏省南通市通州区友谊路320号</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-01-19 18:49</t>
+          <t>2024-01-18 17:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>南通市启东市胜利路</t>
+          <t>南通市开发区青年路</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市胜利路593号</t>
+          <t>江苏省南通市开发区青年路353号</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1852,68 +1852,68 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-01-30 12:18</t>
+          <t>2024-01-24 17:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>徐静</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>南通市启东市中山路</t>
+          <t>南通市开发区工农路</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市中山路179号</t>
+          <t>江苏省南通市开发区工农路407号</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-01-16 12:48</t>
+          <t>2024-01-15 17:04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>徐静</t>
+          <t>陈明</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>南通市海安市和平路</t>
+          <t>南通市海安市人民路</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市和平路795号</t>
+          <t>江苏省南通市海安市人民路896号</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1922,138 +1922,138 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-01-28 14:32</t>
+          <t>2024-01-25 15:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>南通市海门区青年路</t>
+          <t>南通市如东县建设路</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区青年路86号</t>
+          <t>江苏省南通市如东县建设路764号</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-01-20 14:23</t>
+          <t>2024-01-24 09:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>郑十一</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>南通市港闸区人民路</t>
+          <t>南通市海门区胜利路</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区人民路755号</t>
+          <t>江苏省南通市海门区胜利路891号</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-01-30 11:46</t>
+          <t>2024-01-20 18:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>朱峰</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>南通市通州区中山路</t>
+          <t>南通市如东县人民路</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区中山路160号</t>
+          <t>江苏省南通市如东县人民路194号</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-01-27 11:15</t>
+          <t>2024-01-18 14:34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>周九</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>南通市港闸区建设路</t>
+          <t>南通市通州区人民路</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区建设路670号</t>
+          <t>江苏省南通市通州区人民路30号</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2066,34 +2066,34 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-01-17 12:07</t>
+          <t>2024-01-19 10:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>朱峰</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>南通市通州区文化路</t>
+          <t>南通市通州区人民路</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区文化路131号</t>
+          <t>江苏省南通市通州区人民路37号</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-01-26 10:33</t>
+          <t>2024-01-28 14:01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>梁美</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2118,47 +2118,47 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>南通市启东市友谊路</t>
+          <t>南通市海门区人民路</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市友谊路918号</t>
+          <t>江苏省南通市海门区人民路714号</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-01-27 12:39</t>
+          <t>2024-01-24 12:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>陈明</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>南通市通州区解放路</t>
+          <t>南通市启东市人民路</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区解放路866号</t>
+          <t>江苏省南通市启东市人民路343号</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2167,33 +2167,33 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-01-24 11:19</t>
+          <t>2024-01-28 12:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>马超</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>南通市崇川区人民路</t>
+          <t>南通市海门区中山路</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区人民路244号</t>
+          <t>江苏省南通市海门区中山路3号</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2206,29 +2206,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-01-28 13:07</t>
+          <t>2024-01-18 12:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>刘敏</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>南通市启东市解放路</t>
+          <t>南通市如东县文化路</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市解放路957号</t>
+          <t>江苏省南通市如东县文化路512号</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2237,51 +2237,51 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-01-28 17:47</t>
+          <t>2024-01-16 10:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>周九</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>南通市通州区友谊路</t>
+          <t>南通市崇川区解放路</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区友谊路118号</t>
+          <t>江苏省南通市崇川区解放路934号</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-01-26 17:04</t>
+          <t>2024-01-28 10:37</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2293,47 +2293,47 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>南通市海安市解放路</t>
+          <t>南通市启东市和平路</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市解放路418号</t>
+          <t>江苏省南通市启东市和平路514号</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-01-18 11:47</t>
+          <t>2024-01-27 08:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>冯十二</t>
+          <t>林华</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>南通市海安市友谊路</t>
+          <t>南通市启东市人民路</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市友谊路321号</t>
+          <t>江苏省南通市启东市人民路307号</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2342,51 +2342,51 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-01-18 08:06</t>
+          <t>2024-01-15 08:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>林华</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>南通市启东市人民路</t>
+          <t>南通市港闸区和平路</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市人民路185号</t>
+          <t>江苏省南通市港闸区和平路663号</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-01-20 15:17</t>
+          <t>2024-01-26 14:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>刘敏</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2398,47 +2398,47 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>南通市如东县青年路</t>
+          <t>南通市通州区青年路</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县青年路8号</t>
+          <t>江苏省南通市通州区青年路996号</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-01-26 16:56</t>
+          <t>2024-01-26 08:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>朱峰</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>南通市崇川区友谊路</t>
+          <t>南通市如东县建设路</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区友谊路331号</t>
+          <t>江苏省南通市如东县建设路648号</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2447,86 +2447,86 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-01-15 17:47</t>
+          <t>2024-01-26 15:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>南通市崇川区胜利路</t>
+          <t>南通市港闸区友谊路</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区胜利路514号</t>
+          <t>江苏省南通市港闸区友谊路80号</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-01-29 14:37</t>
+          <t>2024-01-27 09:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>南通市崇川区解放路</t>
+          <t>南通市海门区文化路</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区解放路12号</t>
+          <t>江苏省南通市海门区文化路364号</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-01-19 15:55</t>
+          <t>2024-01-18 14:29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>郑十一</t>
+          <t>孙八</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2538,12 +2538,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>南通市开发区工农路</t>
+          <t>南通市崇川区人民路</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区工农路679号</t>
+          <t>江苏省南通市崇川区人民路141号</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2552,46 +2552,46 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-01-30 13:09</t>
+          <t>2024-01-16 14:36</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>林华</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>南通市如东县建设路</t>
+          <t>南通市海安市建设路</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县建设路917号</t>
+          <t>江苏省南通市海安市建设路847号</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-01-21 16:19</t>
+          <t>2024-01-18 14:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2601,124 +2601,124 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>南通市海门区友谊路</t>
+          <t>南通市港闸区和平路</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区友谊路877号</t>
+          <t>江苏省南通市港闸区和平路444号</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-01-25 09:20</t>
+          <t>2024-01-18 13:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>孙八</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>南通市如东县胜利路</t>
+          <t>南通市如东县中山路</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县胜利路247号</t>
+          <t>江苏省南通市如东县中山路866号</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-01-26 14:29</t>
+          <t>2024-01-21 15:16</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>孙八</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>南通市启东市工农路</t>
+          <t>南通市崇川区人民路</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市工农路522号</t>
+          <t>江苏省南通市崇川区人民路636号</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-01-17 11:59</t>
+          <t>2024-01-15 18:28</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>郑十一</t>
+          <t>马超</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>南通市启东市友谊路</t>
+          <t>南通市开发区青年路</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市友谊路911号</t>
+          <t>江苏省南通市开发区青年路602号</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2731,29 +2731,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-01-16 15:06</t>
+          <t>2024-01-26 10:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>黄强</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>南通市崇川区人民路</t>
+          <t>南通市海安市文化路</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区人民路372号</t>
+          <t>江苏省南通市海安市文化路243号</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2762,68 +2762,68 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-01-29 09:11</t>
+          <t>2024-01-17 11:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>孙八</t>
+          <t>马超</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>南通市开发区人民路</t>
+          <t>南通市开发区胜利路</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区人民路146号</t>
+          <t>江苏省南通市开发区胜利路223号</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-01-28 17:52</t>
+          <t>2024-01-24 18:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>冯十二</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>南通市崇川区和平路</t>
+          <t>南通市启东市友谊路</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区和平路378号</t>
+          <t>江苏省南通市启东市友谊路882号</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2832,33 +2832,33 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-01-27 10:18</t>
+          <t>2024-01-25 15:24</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>冯十二</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>南通市开发区工农路</t>
+          <t>南通市海门区中山路</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区工农路933号</t>
+          <t>江苏省南通市海门区中山路252号</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2867,16 +2867,16 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-01-18 14:35</t>
+          <t>2024-01-25 17:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>林华</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2888,47 +2888,47 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>南通市海门区胜利路</t>
+          <t>南通市崇川区人民路</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区胜利路266号</t>
+          <t>江苏省南通市崇川区人民路233号</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-01-24 18:05</t>
+          <t>2024-01-19 09:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>南通市海门区建设路</t>
+          <t>南通市崇川区建设路</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区建设路52号</t>
+          <t>江苏省南通市崇川区建设路436号</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2937,33 +2937,33 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-01-27 14:04</t>
+          <t>2024-01-22 16:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>朱峰</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>南通市海门区文化路</t>
+          <t>南通市启东市解放路</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区文化路439号</t>
+          <t>江苏省南通市启东市解放路602号</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2972,38 +2972,38 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-01-30 13:50</t>
+          <t>2024-01-25 11:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>钱七</t>
+          <t>林华</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>南通市如东县中山路</t>
+          <t>南通市启东市工农路</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县中山路394号</t>
+          <t>江苏省南通市启东市工农路176号</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3011,29 +3011,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-01-22 14:56</t>
+          <t>2024-01-30 09:56</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>南通市海安市胜利路</t>
+          <t>南通市海安市解放路</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市胜利路225号</t>
+          <t>江苏省南通市海安市解放路489号</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3042,283 +3042,283 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-01-18 14:18</t>
+          <t>2024-01-16 14:23</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>孙八</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>南通市港闸区解放路</t>
+          <t>南通市通州区和平路</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区解放路375号</t>
+          <t>江苏省南通市通州区和平路58号</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-01-27 10:58</t>
+          <t>2024-01-22 18:34</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>谢勇</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>南通市开发区工农路</t>
+          <t>南通市海安市文化路</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区工农路315号</t>
+          <t>江苏省南通市海安市文化路321号</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-01-18 09:17</t>
+          <t>2024-01-23 14:29</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>南通市启东市人民路</t>
+          <t>南通市启东市胜利路</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市人民路552号</t>
+          <t>江苏省南通市启东市胜利路670号</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-01-24 12:25</t>
+          <t>2024-01-21 17:38</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>王五</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>南通市港闸区人民路</t>
+          <t>南通市通州区工农路</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区人民路446号</t>
+          <t>江苏省南通市通州区工农路578号</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-01-29 08:36</t>
+          <t>2024-01-18 09:33</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>林华</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>南通市港闸区中山路</t>
+          <t>南通市海门区文化路</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区中山路419号</t>
+          <t>江苏省南通市海门区文化路221号</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-01-24 10:42</t>
+          <t>2024-01-21 11:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>南通市海门区中山路</t>
+          <t>南通市通州区解放路</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区中山路181号</t>
+          <t>江苏省南通市通州区解放路855号</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-01-27 17:46</t>
+          <t>2024-01-23 11:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>周九</t>
+          <t>梁美</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>南通市如东县胜利路</t>
+          <t>南通市通州区和平路</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县胜利路23号</t>
+          <t>江苏省南通市通州区和平路12号</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-01-17 10:47</t>
+          <t>2024-01-20 12:55</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>南通市崇川区中山路</t>
+          <t>南通市海安市中山路</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区中山路978号</t>
+          <t>江苏省南通市海安市中山路542号</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3326,29 +3326,29 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-01-24 10:37</t>
+          <t>2024-01-16 15:17</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>孙八</t>
+          <t>马超</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>南通市启东市胜利路</t>
+          <t>南通市崇川区文化路</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市胜利路168号</t>
+          <t>江苏省南通市崇川区文化路788号</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-01-15 09:42</t>
+          <t>2024-01-18 14:25</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>李四</t>
+          <t>钱七</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3378,12 +3378,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>南通市港闸区中山路</t>
+          <t>南通市海安市和平路</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区中山路938号</t>
+          <t>江苏省南通市海安市和平路919号</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3392,16 +3392,16 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-01-16 12:17</t>
+          <t>2024-01-24 10:39</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>冯十二</t>
+          <t>钱七</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3413,17 +3413,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>南通市开发区友谊路</t>
+          <t>南通市港闸区文化路</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区友谊路131号</t>
+          <t>江苏省南通市港闸区文化路109号</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3431,29 +3431,29 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-01-28 17:52</t>
+          <t>2024-01-24 15:12</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>孙八</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>南通市港闸区建设路</t>
+          <t>南通市通州区和平路</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区建设路187号</t>
+          <t>江苏省南通市通州区和平路946号</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3462,33 +3462,33 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-01-22 18:51</t>
+          <t>2024-01-25 12:13</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>孙八</t>
+          <t>陈明</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>南通市开发区胜利路</t>
+          <t>南通市如东县文化路</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区胜利路813号</t>
+          <t>江苏省南通市如东县文化路516号</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3497,68 +3497,68 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-01-17 13:00</t>
+          <t>2024-01-20 16:18</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>周九</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>南通市海安市解放路</t>
+          <t>南通市海安市青年路</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市解放路480号</t>
+          <t>江苏省南通市海安市青年路651号</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-01-17 16:59</t>
+          <t>2024-01-17 13:38</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>孙八</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>南通市通州区中山路</t>
+          <t>南通市启东市人民路</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区中山路757号</t>
+          <t>江苏省南通市启东市人民路63号</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3567,68 +3567,68 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-01-24 18:30</t>
+          <t>2024-01-17 08:58</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>南通市海安市青年路</t>
+          <t>南通市崇川区解放路</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市青年路892号</t>
+          <t>江苏省南通市崇川区解放路641号</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-01-17 15:51</t>
+          <t>2024-01-19 08:23</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>周九</t>
+          <t>陈明</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>南通市通州区中山路</t>
+          <t>南通市海门区建设路</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区中山路984号</t>
+          <t>江苏省南通市海门区建设路90号</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-01-24 13:02</t>
+          <t>2024-01-15 09:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>周九</t>
+          <t>朱峰</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>南通市港闸区建设路</t>
+          <t>南通市如东县中山路</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区建设路946号</t>
+          <t>江苏省南通市如东县中山路329号</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-01-24 16:31</t>
+          <t>2024-01-29 16:25</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3686,124 +3686,124 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>南通市通州区青年路</t>
+          <t>南通市启东市友谊路</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区青年路495号</t>
+          <t>江苏省南通市启东市友谊路72号</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-01-20 15:03</t>
+          <t>2024-01-18 11:50</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>郑十一</t>
+          <t>谢勇</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>南通市海安市文化路</t>
+          <t>南通市开发区人民路</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市文化路994号</t>
+          <t>江苏省南通市开发区人民路405号</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-01-29 09:49</t>
+          <t>2024-01-17 10:22</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>陈明</t>
+          <t>谢勇</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>南通市崇川区工农路</t>
+          <t>南通市海门区友谊路</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区工农路504号</t>
+          <t>江苏省南通市海门区友谊路877号</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-01-24 16:06</t>
+          <t>2024-01-28 12:57</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>南通市如东县中山路</t>
+          <t>南通市崇川区中山路</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县中山路71号</t>
+          <t>江苏省南通市崇川区中山路192号</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3812,11 +3812,11 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-01-17 18:45</t>
+          <t>2024-01-16 14:29</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3826,24 +3826,24 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>南通市如东县人民路</t>
+          <t>南通市海门区青年路</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县人民路913号</t>
+          <t>江苏省南通市海门区青年路657号</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3851,29 +3851,29 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2024-01-17 16:02</t>
+          <t>2024-01-30 18:41</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>南通市海安市人民路</t>
+          <t>南通市海门区友谊路</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市人民路82号</t>
+          <t>江苏省南通市海门区友谊路384号</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3882,51 +3882,51 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2024-01-18 18:43</t>
+          <t>2024-01-26 12:56</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>陈明</t>
+          <t>王五</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>南通市海门区中山路</t>
+          <t>南通市通州区文化路</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区中山路90号</t>
+          <t>江苏省南通市通州区文化路440号</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2024-01-24 11:54</t>
+          <t>2024-01-17 08:53</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>朱峰</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3938,12 +3938,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>南通市海安市友谊路</t>
+          <t>南通市开发区胜利路</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市友谊路731号</t>
+          <t>江苏省南通市开发区胜利路759号</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3952,21 +3952,21 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2024-01-21 16:28</t>
+          <t>2024-01-17 17:07</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
